--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BA186-9409-4781-8D99-6C617901351E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC836DE5-47CA-498C-9F80-A73EE027433C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -64,12 +64,6 @@
     <t>NumeroCalle</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>Smoke AMBA</t>
   </si>
   <si>
-    <t>Julio</t>
-  </si>
-  <si>
     <t>Smoke AON</t>
   </si>
   <si>
@@ -172,16 +163,22 @@
     <t>Smoke Interior</t>
   </si>
   <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>SMKEnero</t>
-  </si>
-  <si>
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
     <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>RegreFeb</t>
   </si>
 </sst>
 </file>
@@ -578,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -617,13 +614,13 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -640,43 +637,43 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>25437506</v>
+        <v>24455770</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>2302</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>504</v>
@@ -684,43 +681,43 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>25437504</v>
+        <v>25437507</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>2344</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>502</v>
@@ -728,43 +725,43 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>25437505</v>
+        <v>25437508</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>6254</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
       </c>
       <c r="N4">
         <v>503</v>
@@ -772,43 +769,43 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>23455409</v>
+        <v>25437509</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>591</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>312</v>
@@ -816,43 +813,43 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>23455410</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>2302</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>308</v>
@@ -860,43 +857,43 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
       <c r="G7">
         <v>30877653</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>2302</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>504</v>
@@ -904,43 +901,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>25437501</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>2344</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>502</v>
@@ -948,43 +945,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
       </c>
       <c r="G9">
         <v>25437502</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>6254</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
         <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
       </c>
       <c r="N9">
         <v>503</v>
@@ -992,60 +989,60 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>24455770</v>
+        <v>24455771</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11">
         <v>2302</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N11">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2923F277-B910-4AEC-AB5F-84AC0DEE2A7C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B20F558A-4966-457B-A0E5-906C3966A8BE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{9C195305-DCFB-4F4E-B8A6-70A9510F094A}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{1861FB93-5CF0-4AB3-9C1C-2E8E0A80A5DA}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{AA55FE87-FE1F-4F56-A5BE-C1F1F2C3595A}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{733F2C31-0555-423B-8DD3-304F3C459D4A}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{2C912EBA-1872-4A93-863F-5B4B8531D90C}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{612C34A1-C7EF-4D5E-AF7B-06447AA4BAB2}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{717A926F-C14D-4AEB-9B2B-90AC59C825C0}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1861FB93-5CF0-4AB3-9C1C-2E8E0A80A5DA}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{AA55FE87-FE1F-4F56-A5BE-C1F1F2C3595A}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{733F2C31-0555-423B-8DD3-304F3C459D4A}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{717A926F-C14D-4AEB-9B2B-90AC59C825C0}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{3B3850B8-DA9D-4EE0-B8E3-755265AF83F7}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{A964B006-E617-46ED-8C40-98D4BB178604}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{A7EBC99B-2B1A-4EFF-8E79-5ED6DE04016E}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{B209DC69-33E0-4AA0-9A87-81A499AD2638}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{4C4F90FE-DBCB-43C3-8972-65B77AE332A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC836DE5-47CA-498C-9F80-A73EE027433C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6856F-EB69-49BC-AFA1-14802D428CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,12 +163,6 @@
     <t>Smoke Interior</t>
   </si>
   <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
   <si>
@@ -178,7 +172,13 @@
     <t>Enero</t>
   </si>
   <si>
-    <t>RegreFeb</t>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>RegreMarch</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -637,10 +637,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -652,7 +652,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>24455770</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -696,7 +696,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>25437507</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>25437508</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -784,7 +784,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>25437509</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1007,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <v>24455771</v>
+        <v>24455773</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1028,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6856F-EB69-49BC-AFA1-14802D428CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EE36DA-D574-4BFB-87D0-2930C4BA1B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <v>24455773</v>
+        <v>24455777</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1028,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EE36DA-D574-4BFB-87D0-2930C4BA1B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7087A-28BE-4253-B497-651DE7A0E343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -172,13 +172,16 @@
     <t>Enero</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>RegreMarch</t>
+    <t>Polizas</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>Baioni Alejandro Luis</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +992,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1001,22 +1004,22 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>24455777</v>
+        <v>24741860</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I11">
-        <v>2302</v>
+        <v>234</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
         <v>23</v>
@@ -1028,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7087A-28BE-4253-B497-651DE7A0E343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D7651-EFB1-4051-A521-B94049839F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>Baioni Alejandro Luis</t>
   </si>
 </sst>
 </file>
@@ -579,7 +576,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="A11:XFD11"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1007,16 @@
         <v>46</v>
       </c>
       <c r="G11">
-        <v>24741860</v>
+        <v>24741861</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I11">
-        <v>234</v>
+        <v>6254</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
         <v>23</v>
@@ -1031,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D7651-EFB1-4051-A521-B94049839F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817FF15-4949-48C0-A208-2EBA126DF820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
         <v>46</v>
       </c>
       <c r="G11">
-        <v>24741861</v>
+        <v>24741865</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1028,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasValidaDNI.xlsx
+++ b/PCQA/ExcelDatosCuentasValidaDNI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817FF15-4949-48C0-A208-2EBA126DF820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF913155-C1D6-49D2-AB45-EB84B7DF8BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
         <v>46</v>
       </c>
       <c r="G11">
-        <v>24741865</v>
+        <v>24741866</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1028,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>307</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
